--- a/output/2017-02-01 to 2017-03-01.xlsx
+++ b/output/2017-02-01 to 2017-03-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -89,7 +89,7 @@
     <t>['cfop_HUTCHINSON']</t>
   </si>
   <si>
-    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
   </si>
   <si>
     <t>['cfop_PARK']</t>
@@ -110,6 +110,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-101-01</t>
   </si>
   <si>
@@ -129,6 +132,24 @@
   </si>
   <si>
     <t>2017-02-102-01</t>
+  </si>
+  <si>
+    <t>['Arun Lakshmanan']</t>
+  </si>
+  <si>
+    <t>['Jonathan Hoff']</t>
+  </si>
+  <si>
+    <t>['Ashutosh Dhekne']</t>
+  </si>
+  <si>
+    <t>['Won Dong Shin']</t>
+  </si>
+  <si>
+    <t>['Harshal Maske']</t>
+  </si>
+  <si>
+    <t>['Gavin Ananda']</t>
   </si>
   <si>
     <t>cfop_HUTCHINSON</t>
@@ -852,13 +873,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
@@ -868,13 +889,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>35</v>
@@ -882,13 +906,16 @@
       <c r="D2">
         <v>33.33333333333334</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>28</v>
@@ -896,13 +923,16 @@
       <c r="D3">
         <v>26.66666666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>18.5</v>
@@ -910,13 +940,16 @@
       <c r="D4">
         <v>17.61904761904762</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>13</v>
@@ -924,13 +957,16 @@
       <c r="D5">
         <v>12.38095238095238</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -938,13 +974,16 @@
       <c r="D6">
         <v>5.714285714285714</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -952,19 +991,25 @@
       <c r="D7">
         <v>2.857142857142857</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>1.5</v>
       </c>
       <c r="D8">
         <v>1.428571428571429</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>56</v>
@@ -1010,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>49</v>
@@ -1024,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -1038,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>24.5</v>
@@ -1052,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -1066,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1080,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>1.5</v>
